--- a/Code/Results/Cases/Case_4_83/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_83/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000119984727023</v>
+        <v>1.030144226804358</v>
       </c>
       <c r="D2">
-        <v>1.018299321559907</v>
+        <v>1.033091962115486</v>
       </c>
       <c r="E2">
-        <v>1.017521237717781</v>
+        <v>1.043816582810648</v>
       </c>
       <c r="F2">
-        <v>1.023723068164788</v>
+        <v>1.051627515709619</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04681724282764</v>
+        <v>1.034050737202023</v>
       </c>
       <c r="J2">
-        <v>1.022297107663499</v>
+        <v>1.035287095779168</v>
       </c>
       <c r="K2">
-        <v>1.029509471179692</v>
+        <v>1.035895308166132</v>
       </c>
       <c r="L2">
-        <v>1.028741753519457</v>
+        <v>1.046589382286689</v>
       </c>
       <c r="M2">
-        <v>1.034861507584217</v>
+        <v>1.054378492767877</v>
       </c>
       <c r="N2">
-        <v>1.011326586308281</v>
+        <v>1.015753788384565</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004529936965066</v>
+        <v>1.031073561596111</v>
       </c>
       <c r="D3">
-        <v>1.021447785440057</v>
+        <v>1.033759860065317</v>
       </c>
       <c r="E3">
-        <v>1.021604422928388</v>
+        <v>1.044733880241246</v>
       </c>
       <c r="F3">
-        <v>1.028152233992469</v>
+        <v>1.052623478992939</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048044727580118</v>
+        <v>1.034223132434526</v>
       </c>
       <c r="J3">
-        <v>1.024897868492528</v>
+        <v>1.035857863517911</v>
       </c>
       <c r="K3">
-        <v>1.031813399974303</v>
+        <v>1.036372491227186</v>
       </c>
       <c r="L3">
-        <v>1.031968136853538</v>
+        <v>1.047317514135319</v>
       </c>
       <c r="M3">
-        <v>1.03843714057235</v>
+        <v>1.055186668930673</v>
       </c>
       <c r="N3">
-        <v>1.01219755886267</v>
+        <v>1.015943837631545</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007325087436134</v>
+        <v>1.03167521008219</v>
       </c>
       <c r="D4">
-        <v>1.023443593017563</v>
+        <v>1.034191895735461</v>
       </c>
       <c r="E4">
-        <v>1.024197511929002</v>
+        <v>1.045328070694878</v>
       </c>
       <c r="F4">
-        <v>1.03096423448559</v>
+        <v>1.053268567374353</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048808450531592</v>
+        <v>1.034332963048117</v>
       </c>
       <c r="J4">
-        <v>1.026543254798032</v>
+        <v>1.036226882647598</v>
       </c>
       <c r="K4">
-        <v>1.033267074352576</v>
+        <v>1.036680441559745</v>
       </c>
       <c r="L4">
-        <v>1.034012409104687</v>
+        <v>1.047788672304537</v>
       </c>
       <c r="M4">
-        <v>1.040702777424538</v>
+        <v>1.05570963197563</v>
       </c>
       <c r="N4">
-        <v>1.012748462238394</v>
+        <v>1.016066671619184</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.008486678023459</v>
+        <v>1.031928215598251</v>
       </c>
       <c r="D5">
-        <v>1.024272992695995</v>
+        <v>1.034373488841803</v>
       </c>
       <c r="E5">
-        <v>1.025276311631489</v>
+        <v>1.045578019765598</v>
       </c>
       <c r="F5">
-        <v>1.032133920753652</v>
+        <v>1.05353991295588</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049122352639358</v>
+        <v>1.034378723220846</v>
       </c>
       <c r="J5">
-        <v>1.027226269894063</v>
+        <v>1.036381944165567</v>
       </c>
       <c r="K5">
-        <v>1.033869547243133</v>
+        <v>1.036809706770654</v>
       </c>
       <c r="L5">
-        <v>1.034861752772849</v>
+        <v>1.047986748078594</v>
       </c>
       <c r="M5">
-        <v>1.041644112703206</v>
+        <v>1.055929489048679</v>
       </c>
       <c r="N5">
-        <v>1.012977115225787</v>
+        <v>1.016118277022869</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008680936789214</v>
+        <v>1.031970700561371</v>
       </c>
       <c r="D6">
-        <v>1.02441169548755</v>
+        <v>1.034403977047777</v>
       </c>
       <c r="E6">
-        <v>1.025456793350207</v>
+        <v>1.04561999615622</v>
       </c>
       <c r="F6">
-        <v>1.032329596886572</v>
+        <v>1.053585481857851</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049174641973636</v>
+        <v>1.034386382338861</v>
       </c>
       <c r="J6">
-        <v>1.027340448181036</v>
+        <v>1.036407975303166</v>
       </c>
       <c r="K6">
-        <v>1.033970204364995</v>
+        <v>1.036831399379637</v>
       </c>
       <c r="L6">
-        <v>1.035003780048325</v>
+        <v>1.048020005892869</v>
       </c>
       <c r="M6">
-        <v>1.041801524061252</v>
+        <v>1.055966404185215</v>
       </c>
       <c r="N6">
-        <v>1.013015336728071</v>
+        <v>1.016126939793013</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007340661048628</v>
+        <v>1.031678590470607</v>
       </c>
       <c r="D7">
-        <v>1.0234547129953</v>
+        <v>1.034194322329537</v>
       </c>
       <c r="E7">
-        <v>1.024211970929616</v>
+        <v>1.045331409933261</v>
       </c>
       <c r="F7">
-        <v>1.030979912354917</v>
+        <v>1.053272192517787</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048812672881593</v>
+        <v>1.034333576119966</v>
       </c>
       <c r="J7">
-        <v>1.026552415140036</v>
+        <v>1.036228954879611</v>
       </c>
       <c r="K7">
-        <v>1.033275158317033</v>
+        <v>1.036682169583631</v>
       </c>
       <c r="L7">
-        <v>1.034023797219008</v>
+        <v>1.047791319000623</v>
       </c>
       <c r="M7">
-        <v>1.040715398892475</v>
+        <v>1.055712569704648</v>
       </c>
       <c r="N7">
-        <v>1.01275152897689</v>
+        <v>1.016067361307168</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.001622738159999</v>
+        <v>1.030458235772104</v>
       </c>
       <c r="D8">
-        <v>1.019372121684362</v>
+        <v>1.033317709275712</v>
       </c>
       <c r="E8">
-        <v>1.018911561250593</v>
+        <v>1.044126454981304</v>
       </c>
       <c r="F8">
-        <v>1.025231371828461</v>
+        <v>1.051963974238174</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047238490528924</v>
+        <v>1.034109354828899</v>
       </c>
       <c r="J8">
-        <v>1.02318397272639</v>
+        <v>1.035480052164511</v>
       </c>
       <c r="K8">
-        <v>1.030295926375247</v>
+        <v>1.036056743377738</v>
       </c>
       <c r="L8">
-        <v>1.029841314688825</v>
+        <v>1.046835455514537</v>
       </c>
       <c r="M8">
-        <v>1.036080079294291</v>
+        <v>1.054651615058115</v>
       </c>
       <c r="N8">
-        <v>1.011623613857991</v>
+        <v>1.015818045316735</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9910767299746417</v>
+        <v>1.028310205374158</v>
       </c>
       <c r="D9">
-        <v>1.01184689062574</v>
+        <v>1.031772003206075</v>
       </c>
       <c r="E9">
-        <v>1.009177393474814</v>
+        <v>1.04200810955577</v>
       </c>
       <c r="F9">
-        <v>1.014667454379425</v>
+        <v>1.049663633344227</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044223757284211</v>
+        <v>1.033701100767489</v>
       </c>
       <c r="J9">
-        <v>1.016948575290825</v>
+        <v>1.034158088688227</v>
       </c>
       <c r="K9">
-        <v>1.024750640559467</v>
+        <v>1.034948435220992</v>
       </c>
       <c r="L9">
-        <v>1.022123308219669</v>
+        <v>1.045151211870699</v>
       </c>
       <c r="M9">
-        <v>1.027526961646934</v>
+        <v>1.052782273491563</v>
       </c>
       <c r="N9">
-        <v>1.009534855730044</v>
+        <v>1.015377657312128</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9836953778457196</v>
+        <v>1.026879846371937</v>
       </c>
       <c r="D10">
-        <v>1.006587115191599</v>
+        <v>1.030740942127144</v>
       </c>
       <c r="E10">
-        <v>1.002394926013383</v>
+        <v>1.040599273343545</v>
       </c>
       <c r="F10">
-        <v>1.007301753233846</v>
+        <v>1.048133444088038</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042041703478443</v>
+        <v>1.033420132157148</v>
       </c>
       <c r="J10">
-        <v>1.012571164758858</v>
+        <v>1.033275286197367</v>
       </c>
       <c r="K10">
-        <v>1.020838447101194</v>
+        <v>1.034205436530285</v>
       </c>
       <c r="L10">
-        <v>1.01672107354867</v>
+        <v>1.044028519340247</v>
       </c>
       <c r="M10">
-        <v>1.021540411997681</v>
+        <v>1.051536244159134</v>
       </c>
       <c r="N10">
-        <v>1.008068099501303</v>
+        <v>1.015083372042376</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9804076353627404</v>
+        <v>1.026260890022489</v>
       </c>
       <c r="D11">
-        <v>1.00424705075875</v>
+        <v>1.030294358530885</v>
       </c>
       <c r="E11">
-        <v>0.9993817753154814</v>
+        <v>1.039990051781232</v>
       </c>
       <c r="F11">
-        <v>1.004028167886265</v>
+        <v>1.047471669636734</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041053493734668</v>
+        <v>1.033296390874525</v>
       </c>
       <c r="J11">
-        <v>1.010618820890385</v>
+        <v>1.032892679731684</v>
       </c>
       <c r="K11">
-        <v>1.019089315919675</v>
+        <v>1.033882743531065</v>
       </c>
       <c r="L11">
-        <v>1.014315359873442</v>
+        <v>1.043542426304587</v>
       </c>
       <c r="M11">
-        <v>1.01887451658563</v>
+        <v>1.050996760359195</v>
       </c>
       <c r="N11">
-        <v>1.007413867376526</v>
+        <v>1.014955783024868</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9791718941236348</v>
+        <v>1.026031042762226</v>
       </c>
       <c r="D12">
-        <v>1.003367999931108</v>
+        <v>1.030128459724715</v>
       </c>
       <c r="E12">
-        <v>0.9982504724402317</v>
+        <v>1.039763883202848</v>
       </c>
       <c r="F12">
-        <v>1.002798872731981</v>
+        <v>1.047225979608031</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040679682315234</v>
+        <v>1.033250115977073</v>
       </c>
       <c r="J12">
-        <v>1.00988466382068</v>
+        <v>1.032750511342049</v>
       </c>
       <c r="K12">
-        <v>1.018430957593344</v>
+        <v>1.033762736259247</v>
       </c>
       <c r="L12">
-        <v>1.013411267569351</v>
+        <v>1.043361876741803</v>
       </c>
       <c r="M12">
-        <v>1.017872646489208</v>
+        <v>1.050796381381349</v>
       </c>
       <c r="N12">
-        <v>1.007167846338925</v>
+        <v>1.014908366835021</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9794376351761503</v>
+        <v>1.02608034302054</v>
       </c>
       <c r="D13">
-        <v>1.003557012458833</v>
+        <v>1.030164046364386</v>
       </c>
       <c r="E13">
-        <v>0.998493698052243</v>
+        <v>1.039812391526195</v>
       </c>
       <c r="F13">
-        <v>1.003063175999361</v>
+        <v>1.047278675393038</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040760175307342</v>
+        <v>1.033260056202694</v>
       </c>
       <c r="J13">
-        <v>1.010042555992076</v>
+        <v>1.032781009252701</v>
       </c>
       <c r="K13">
-        <v>1.018572575503582</v>
+        <v>1.033788484760169</v>
       </c>
       <c r="L13">
-        <v>1.013605682315972</v>
+        <v>1.043400604901756</v>
       </c>
       <c r="M13">
-        <v>1.018088087220304</v>
+        <v>1.050839362913531</v>
       </c>
       <c r="N13">
-        <v>1.007220757221442</v>
+        <v>1.014918538847203</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9803057896063578</v>
+        <v>1.026241889533562</v>
       </c>
       <c r="D14">
-        <v>1.00417459172096</v>
+        <v>1.030280645638575</v>
       </c>
       <c r="E14">
-        <v>0.9992885117339332</v>
+        <v>1.039971354091188</v>
       </c>
       <c r="F14">
-        <v>1.003926830260499</v>
+        <v>1.04745135831744</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041022733382263</v>
+        <v>1.033292572135632</v>
       </c>
       <c r="J14">
-        <v>1.010558320757308</v>
+        <v>1.032880929090134</v>
       </c>
       <c r="K14">
-        <v>1.019035074572904</v>
+        <v>1.033872826639345</v>
       </c>
       <c r="L14">
-        <v>1.014240844660106</v>
+        <v>1.043527501872203</v>
       </c>
       <c r="M14">
-        <v>1.018791942524123</v>
+        <v>1.050980196774096</v>
       </c>
       <c r="N14">
-        <v>1.007393593437733</v>
+        <v>1.014951864074483</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9808387392326922</v>
+        <v>1.026341431737844</v>
       </c>
       <c r="D15">
-        <v>1.004553783937462</v>
+        <v>1.0303524839849</v>
       </c>
       <c r="E15">
-        <v>0.9997766020387499</v>
+        <v>1.040069312565243</v>
       </c>
       <c r="F15">
-        <v>1.004457167012649</v>
+        <v>1.047557770228589</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041183602940444</v>
+        <v>1.033312564967167</v>
       </c>
       <c r="J15">
-        <v>1.01087489878263</v>
+        <v>1.032942486225539</v>
       </c>
       <c r="K15">
-        <v>1.019318877356683</v>
+        <v>1.033924773305963</v>
       </c>
       <c r="L15">
-        <v>1.014630781505011</v>
+        <v>1.043605688245432</v>
       </c>
       <c r="M15">
-        <v>1.019224051219628</v>
+        <v>1.051066970430688</v>
       </c>
       <c r="N15">
-        <v>1.00749968037833</v>
+        <v>1.01497239368323</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9839115807399303</v>
+        <v>1.026920932932306</v>
       </c>
       <c r="D16">
-        <v>1.006741062065977</v>
+        <v>1.030770577842657</v>
       </c>
       <c r="E16">
-        <v>1.00259323929517</v>
+        <v>1.040639722618173</v>
       </c>
       <c r="F16">
-        <v>1.007517178616752</v>
+        <v>1.048177380990953</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042106354673385</v>
+        <v>1.033428300688234</v>
       </c>
       <c r="J16">
-        <v>1.01269950132588</v>
+        <v>1.033300671286232</v>
       </c>
       <c r="K16">
-        <v>1.020953338643744</v>
+        <v>1.034226832253961</v>
       </c>
       <c r="L16">
-        <v>1.016879288748008</v>
+        <v>1.044060780666317</v>
       </c>
       <c r="M16">
-        <v>1.021715738723495</v>
+        <v>1.051572049172751</v>
       </c>
       <c r="N16">
-        <v>1.00811110439809</v>
+        <v>1.01509183632917</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9858140507375953</v>
+        <v>1.027284545993556</v>
       </c>
       <c r="D17">
-        <v>1.008096030128876</v>
+        <v>1.031032803940245</v>
       </c>
       <c r="E17">
-        <v>1.004339188665503</v>
+        <v>1.04099774448147</v>
       </c>
       <c r="F17">
-        <v>1.00941363003316</v>
+        <v>1.048566263470673</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042673403998832</v>
+        <v>1.033500342209296</v>
       </c>
       <c r="J17">
-        <v>1.013828504944744</v>
+        <v>1.03352525896342</v>
       </c>
       <c r="K17">
-        <v>1.021963580242663</v>
+        <v>1.034416046922204</v>
       </c>
       <c r="L17">
-        <v>1.018271561550814</v>
+        <v>1.044346259590069</v>
       </c>
       <c r="M17">
-        <v>1.023258593172359</v>
+        <v>1.05188888721957</v>
       </c>
       <c r="N17">
-        <v>1.00848942191664</v>
+        <v>1.015166716521684</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9869149491111854</v>
+        <v>1.027496673738978</v>
       </c>
       <c r="D18">
-        <v>1.008880357136598</v>
+        <v>1.031185743608777</v>
       </c>
       <c r="E18">
-        <v>1.00535025396531</v>
+        <v>1.041206651020091</v>
       </c>
       <c r="F18">
-        <v>1.010511724270986</v>
+        <v>1.048793169886751</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04299998652285</v>
+        <v>1.033542162076201</v>
       </c>
       <c r="J18">
-        <v>1.014481573973482</v>
+        <v>1.033656223603238</v>
       </c>
       <c r="K18">
-        <v>1.022547544639056</v>
+        <v>1.034526319014552</v>
       </c>
       <c r="L18">
-        <v>1.01907726973246</v>
+        <v>1.044512778432634</v>
       </c>
       <c r="M18">
-        <v>1.024151445419125</v>
+        <v>1.052073698740493</v>
       </c>
       <c r="N18">
-        <v>1.008708253424009</v>
+        <v>1.015210377261853</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9872888602393955</v>
+        <v>1.027569010306703</v>
       </c>
       <c r="D19">
-        <v>1.009146787340199</v>
+        <v>1.031237889942565</v>
       </c>
       <c r="E19">
-        <v>1.005693778131437</v>
+        <v>1.041277896020833</v>
       </c>
       <c r="F19">
-        <v>1.010884796802097</v>
+        <v>1.04887055228013</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043110642555548</v>
+        <v>1.033556387503187</v>
       </c>
       <c r="J19">
-        <v>1.014703339908785</v>
+        <v>1.033700873444171</v>
       </c>
       <c r="K19">
-        <v>1.022745774573627</v>
+        <v>1.034563903039205</v>
       </c>
       <c r="L19">
-        <v>1.019350928012979</v>
+        <v>1.044569557671918</v>
       </c>
       <c r="M19">
-        <v>1.024454702619172</v>
+        <v>1.052136715551642</v>
       </c>
       <c r="N19">
-        <v>1.008782562150848</v>
+        <v>1.015225261788492</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.985610847280632</v>
+        <v>1.027245529775614</v>
       </c>
       <c r="D20">
-        <v>1.007951278945455</v>
+        <v>1.031004670832093</v>
       </c>
       <c r="E20">
-        <v>1.004152626055694</v>
+        <v>1.040959324001604</v>
       </c>
       <c r="F20">
-        <v>1.009210998700254</v>
+        <v>1.048524532000807</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042612997682039</v>
+        <v>1.033492633594151</v>
       </c>
       <c r="J20">
-        <v>1.01370794121609</v>
+        <v>1.033501166295496</v>
       </c>
       <c r="K20">
-        <v>1.021855740902657</v>
+        <v>1.034395755655863</v>
       </c>
       <c r="L20">
-        <v>1.018122847450316</v>
+        <v>1.044315630001377</v>
       </c>
       <c r="M20">
-        <v>1.023093794617984</v>
+        <v>1.051854892945181</v>
       </c>
       <c r="N20">
-        <v>1.008449022765832</v>
+        <v>1.015158684197874</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.98005054725083</v>
+        <v>1.026194316430141</v>
       </c>
       <c r="D21">
-        <v>1.003993005603394</v>
+        <v>1.030246310538272</v>
       </c>
       <c r="E21">
-        <v>0.999054797715612</v>
+        <v>1.039924540161033</v>
       </c>
       <c r="F21">
-        <v>1.003672879644278</v>
+        <v>1.047400504110377</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040945604741884</v>
+        <v>1.033283005608113</v>
       </c>
       <c r="J21">
-        <v>1.010406692028407</v>
+        <v>1.032851506598157</v>
       </c>
       <c r="K21">
-        <v>1.018899122102916</v>
+        <v>1.033847994045519</v>
       </c>
       <c r="L21">
-        <v>1.014054099397845</v>
+        <v>1.043490133675129</v>
       </c>
       <c r="M21">
-        <v>1.018585000703221</v>
+        <v>1.05093872444653</v>
       </c>
       <c r="N21">
-        <v>1.007342781729839</v>
+        <v>1.01494205128414</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9764700931501619</v>
+        <v>1.025533728395911</v>
       </c>
       <c r="D22">
-        <v>1.001447066671887</v>
+        <v>1.029769397153184</v>
       </c>
       <c r="E22">
-        <v>0.9957793335217806</v>
+        <v>1.039274645227039</v>
       </c>
       <c r="F22">
-        <v>1.000113286368097</v>
+        <v>1.046694492287091</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039858090031266</v>
+        <v>1.033149400064725</v>
       </c>
       <c r="J22">
-        <v>1.008278939480745</v>
+        <v>1.032442743298618</v>
       </c>
       <c r="K22">
-        <v>1.016989911291801</v>
+        <v>1.033502757723062</v>
       </c>
       <c r="L22">
-        <v>1.011434868904691</v>
+        <v>1.042971152555459</v>
       </c>
       <c r="M22">
-        <v>1.015682499367439</v>
+        <v>1.050362747421919</v>
       </c>
       <c r="N22">
-        <v>1.006629753095149</v>
+        <v>1.014805707177969</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9783764384509473</v>
+        <v>1.025883885020487</v>
       </c>
       <c r="D23">
-        <v>1.002802298695104</v>
+        <v>1.03002222719472</v>
       </c>
       <c r="E23">
-        <v>0.9975225976076075</v>
+        <v>1.039619098689241</v>
       </c>
       <c r="F23">
-        <v>1.002007889335393</v>
+        <v>1.047068694916951</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040438395393782</v>
+        <v>1.033220397692141</v>
       </c>
       <c r="J23">
-        <v>1.009411990914146</v>
+        <v>1.032659464277563</v>
       </c>
       <c r="K23">
-        <v>1.018006915574375</v>
+        <v>1.033685853035575</v>
       </c>
       <c r="L23">
-        <v>1.012829339038297</v>
+        <v>1.043246270032986</v>
       </c>
       <c r="M23">
-        <v>1.017227782287837</v>
+        <v>1.050668078228797</v>
       </c>
       <c r="N23">
-        <v>1.007009449643367</v>
+        <v>1.014877998778747</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9857026932532424</v>
+        <v>1.027263159406447</v>
       </c>
       <c r="D24">
-        <v>1.008016704292869</v>
+        <v>1.031017383011066</v>
       </c>
       <c r="E24">
-        <v>1.004236948236522</v>
+        <v>1.040976684320377</v>
       </c>
       <c r="F24">
-        <v>1.009302583977633</v>
+        <v>1.048543388415271</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042640305559137</v>
+        <v>1.033496117405797</v>
       </c>
       <c r="J24">
-        <v>1.013762435616843</v>
+        <v>1.033512052838803</v>
       </c>
       <c r="K24">
-        <v>1.021904485186742</v>
+        <v>1.034404924695046</v>
       </c>
       <c r="L24">
-        <v>1.018190064633063</v>
+        <v>1.044329470182348</v>
       </c>
       <c r="M24">
-        <v>1.023168281793978</v>
+        <v>1.051870253478357</v>
       </c>
       <c r="N24">
-        <v>1.00846728306287</v>
+        <v>1.015162313707512</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9938622698376176</v>
+        <v>1.028865233868087</v>
       </c>
       <c r="D25">
-        <v>1.013833600446906</v>
+        <v>1.032171715402228</v>
       </c>
       <c r="E25">
-        <v>1.011743394767765</v>
+        <v>1.042555159752256</v>
       </c>
       <c r="F25">
-        <v>1.017453024316453</v>
+        <v>1.050257737665538</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045032696756033</v>
+        <v>1.03380819809979</v>
       </c>
       <c r="J25">
-        <v>1.018597973451256</v>
+        <v>1.034500115097309</v>
       </c>
       <c r="K25">
-        <v>1.026220897131831</v>
+        <v>1.035235691181832</v>
       </c>
       <c r="L25">
-        <v>1.024162104411907</v>
+        <v>1.045586609731162</v>
       </c>
       <c r="M25">
-        <v>1.029786314036389</v>
+        <v>1.053265512992975</v>
       </c>
       <c r="N25">
-        <v>1.010087458590688</v>
+        <v>1.015491631845898</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_83/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_83/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030144226804358</v>
+        <v>1.000119984727023</v>
       </c>
       <c r="D2">
-        <v>1.033091962115486</v>
+        <v>1.018299321559908</v>
       </c>
       <c r="E2">
-        <v>1.043816582810648</v>
+        <v>1.017521237717781</v>
       </c>
       <c r="F2">
-        <v>1.051627515709619</v>
+        <v>1.023723068164788</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034050737202023</v>
+        <v>1.046817242827641</v>
       </c>
       <c r="J2">
-        <v>1.035287095779168</v>
+        <v>1.0222971076635</v>
       </c>
       <c r="K2">
-        <v>1.035895308166132</v>
+        <v>1.029509471179693</v>
       </c>
       <c r="L2">
-        <v>1.046589382286689</v>
+        <v>1.028741753519458</v>
       </c>
       <c r="M2">
-        <v>1.054378492767877</v>
+        <v>1.034861507584217</v>
       </c>
       <c r="N2">
-        <v>1.015753788384565</v>
+        <v>1.011326586308281</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031073561596111</v>
+        <v>1.004529936965066</v>
       </c>
       <c r="D3">
-        <v>1.033759860065317</v>
+        <v>1.021447785440056</v>
       </c>
       <c r="E3">
-        <v>1.044733880241246</v>
+        <v>1.021604422928387</v>
       </c>
       <c r="F3">
-        <v>1.052623478992939</v>
+        <v>1.028152233992468</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034223132434526</v>
+        <v>1.048044727580118</v>
       </c>
       <c r="J3">
-        <v>1.035857863517911</v>
+        <v>1.024897868492527</v>
       </c>
       <c r="K3">
-        <v>1.036372491227186</v>
+        <v>1.031813399974302</v>
       </c>
       <c r="L3">
-        <v>1.047317514135319</v>
+        <v>1.031968136853537</v>
       </c>
       <c r="M3">
-        <v>1.055186668930673</v>
+        <v>1.038437140572349</v>
       </c>
       <c r="N3">
-        <v>1.015943837631545</v>
+        <v>1.01219755886267</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03167521008219</v>
+        <v>1.007325087436134</v>
       </c>
       <c r="D4">
-        <v>1.034191895735461</v>
+        <v>1.023443593017563</v>
       </c>
       <c r="E4">
-        <v>1.045328070694878</v>
+        <v>1.024197511929003</v>
       </c>
       <c r="F4">
-        <v>1.053268567374353</v>
+        <v>1.030964234485591</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034332963048117</v>
+        <v>1.048808450531593</v>
       </c>
       <c r="J4">
-        <v>1.036226882647598</v>
+        <v>1.026543254798033</v>
       </c>
       <c r="K4">
-        <v>1.036680441559745</v>
+        <v>1.033267074352576</v>
       </c>
       <c r="L4">
-        <v>1.047788672304537</v>
+        <v>1.034012409104688</v>
       </c>
       <c r="M4">
-        <v>1.05570963197563</v>
+        <v>1.040702777424539</v>
       </c>
       <c r="N4">
-        <v>1.016066671619184</v>
+        <v>1.012748462238394</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031928215598251</v>
+        <v>1.008486678023459</v>
       </c>
       <c r="D5">
-        <v>1.034373488841803</v>
+        <v>1.024272992695995</v>
       </c>
       <c r="E5">
-        <v>1.045578019765598</v>
+        <v>1.025276311631489</v>
       </c>
       <c r="F5">
-        <v>1.05353991295588</v>
+        <v>1.032133920753652</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034378723220846</v>
+        <v>1.049122352639358</v>
       </c>
       <c r="J5">
-        <v>1.036381944165567</v>
+        <v>1.027226269894063</v>
       </c>
       <c r="K5">
-        <v>1.036809706770654</v>
+        <v>1.033869547243133</v>
       </c>
       <c r="L5">
-        <v>1.047986748078594</v>
+        <v>1.034861752772848</v>
       </c>
       <c r="M5">
-        <v>1.055929489048679</v>
+        <v>1.041644112703206</v>
       </c>
       <c r="N5">
-        <v>1.016118277022869</v>
+        <v>1.012977115225787</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031970700561371</v>
+        <v>1.008680936789214</v>
       </c>
       <c r="D6">
-        <v>1.034403977047777</v>
+        <v>1.02441169548755</v>
       </c>
       <c r="E6">
-        <v>1.04561999615622</v>
+        <v>1.025456793350206</v>
       </c>
       <c r="F6">
-        <v>1.053585481857851</v>
+        <v>1.032329596886571</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034386382338861</v>
+        <v>1.049174641973636</v>
       </c>
       <c r="J6">
-        <v>1.036407975303166</v>
+        <v>1.027340448181036</v>
       </c>
       <c r="K6">
-        <v>1.036831399379637</v>
+        <v>1.033970204364995</v>
       </c>
       <c r="L6">
-        <v>1.048020005892869</v>
+        <v>1.035003780048325</v>
       </c>
       <c r="M6">
-        <v>1.055966404185215</v>
+        <v>1.041801524061252</v>
       </c>
       <c r="N6">
-        <v>1.016126939793013</v>
+        <v>1.013015336728071</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031678590470607</v>
+        <v>1.007340661048628</v>
       </c>
       <c r="D7">
-        <v>1.034194322329537</v>
+        <v>1.0234547129953</v>
       </c>
       <c r="E7">
-        <v>1.045331409933261</v>
+        <v>1.024211970929615</v>
       </c>
       <c r="F7">
-        <v>1.053272192517787</v>
+        <v>1.030979912354916</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034333576119966</v>
+        <v>1.048812672881592</v>
       </c>
       <c r="J7">
-        <v>1.036228954879611</v>
+        <v>1.026552415140036</v>
       </c>
       <c r="K7">
-        <v>1.036682169583631</v>
+        <v>1.033275158317033</v>
       </c>
       <c r="L7">
-        <v>1.047791319000623</v>
+        <v>1.034023797219007</v>
       </c>
       <c r="M7">
-        <v>1.055712569704648</v>
+        <v>1.040715398892475</v>
       </c>
       <c r="N7">
-        <v>1.016067361307168</v>
+        <v>1.01275152897689</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030458235772104</v>
+        <v>1.00162273816</v>
       </c>
       <c r="D8">
-        <v>1.033317709275712</v>
+        <v>1.019372121684362</v>
       </c>
       <c r="E8">
-        <v>1.044126454981304</v>
+        <v>1.018911561250593</v>
       </c>
       <c r="F8">
-        <v>1.051963974238174</v>
+        <v>1.025231371828462</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034109354828899</v>
+        <v>1.047238490528924</v>
       </c>
       <c r="J8">
-        <v>1.035480052164511</v>
+        <v>1.02318397272639</v>
       </c>
       <c r="K8">
-        <v>1.036056743377738</v>
+        <v>1.030295926375247</v>
       </c>
       <c r="L8">
-        <v>1.046835455514537</v>
+        <v>1.029841314688825</v>
       </c>
       <c r="M8">
-        <v>1.054651615058115</v>
+        <v>1.036080079294291</v>
       </c>
       <c r="N8">
-        <v>1.015818045316735</v>
+        <v>1.011623613857991</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028310205374158</v>
+        <v>0.9910767299746421</v>
       </c>
       <c r="D9">
-        <v>1.031772003206075</v>
+        <v>1.011846890625741</v>
       </c>
       <c r="E9">
-        <v>1.04200810955577</v>
+        <v>1.009177393474815</v>
       </c>
       <c r="F9">
-        <v>1.049663633344227</v>
+        <v>1.014667454379425</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033701100767489</v>
+        <v>1.044223757284211</v>
       </c>
       <c r="J9">
-        <v>1.034158088688227</v>
+        <v>1.016948575290825</v>
       </c>
       <c r="K9">
-        <v>1.034948435220992</v>
+        <v>1.024750640559468</v>
       </c>
       <c r="L9">
-        <v>1.045151211870699</v>
+        <v>1.022123308219669</v>
       </c>
       <c r="M9">
-        <v>1.052782273491563</v>
+        <v>1.027526961646935</v>
       </c>
       <c r="N9">
-        <v>1.015377657312128</v>
+        <v>1.009534855730045</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026879846371937</v>
+        <v>0.9836953778457191</v>
       </c>
       <c r="D10">
-        <v>1.030740942127144</v>
+        <v>1.006587115191599</v>
       </c>
       <c r="E10">
-        <v>1.040599273343545</v>
+        <v>1.002394926013382</v>
       </c>
       <c r="F10">
-        <v>1.048133444088038</v>
+        <v>1.007301753233845</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033420132157148</v>
+        <v>1.042041703478443</v>
       </c>
       <c r="J10">
-        <v>1.033275286197367</v>
+        <v>1.012571164758858</v>
       </c>
       <c r="K10">
-        <v>1.034205436530285</v>
+        <v>1.020838447101193</v>
       </c>
       <c r="L10">
-        <v>1.044028519340247</v>
+        <v>1.01672107354867</v>
       </c>
       <c r="M10">
-        <v>1.051536244159134</v>
+        <v>1.02154041199768</v>
       </c>
       <c r="N10">
-        <v>1.015083372042376</v>
+        <v>1.008068099501303</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026260890022489</v>
+        <v>0.9804076353627407</v>
       </c>
       <c r="D11">
-        <v>1.030294358530885</v>
+        <v>1.00424705075875</v>
       </c>
       <c r="E11">
-        <v>1.039990051781232</v>
+        <v>0.9993817753154818</v>
       </c>
       <c r="F11">
-        <v>1.047471669636734</v>
+        <v>1.004028167886265</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033296390874525</v>
+        <v>1.041053493734668</v>
       </c>
       <c r="J11">
-        <v>1.032892679731684</v>
+        <v>1.010618820890385</v>
       </c>
       <c r="K11">
-        <v>1.033882743531065</v>
+        <v>1.019089315919675</v>
       </c>
       <c r="L11">
-        <v>1.043542426304587</v>
+        <v>1.014315359873442</v>
       </c>
       <c r="M11">
-        <v>1.050996760359195</v>
+        <v>1.01887451658563</v>
       </c>
       <c r="N11">
-        <v>1.014955783024868</v>
+        <v>1.007413867376526</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026031042762226</v>
+        <v>0.9791718941236351</v>
       </c>
       <c r="D12">
-        <v>1.030128459724715</v>
+        <v>1.003367999931108</v>
       </c>
       <c r="E12">
-        <v>1.039763883202848</v>
+        <v>0.9982504724402319</v>
       </c>
       <c r="F12">
-        <v>1.047225979608031</v>
+        <v>1.002798872731981</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033250115977073</v>
+        <v>1.040679682315234</v>
       </c>
       <c r="J12">
-        <v>1.032750511342049</v>
+        <v>1.009884663820681</v>
       </c>
       <c r="K12">
-        <v>1.033762736259247</v>
+        <v>1.018430957593344</v>
       </c>
       <c r="L12">
-        <v>1.043361876741803</v>
+        <v>1.013411267569352</v>
       </c>
       <c r="M12">
-        <v>1.050796381381349</v>
+        <v>1.017872646489208</v>
       </c>
       <c r="N12">
-        <v>1.014908366835021</v>
+        <v>1.007167846338925</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02608034302054</v>
+        <v>0.9794376351761511</v>
       </c>
       <c r="D13">
-        <v>1.030164046364386</v>
+        <v>1.003557012458834</v>
       </c>
       <c r="E13">
-        <v>1.039812391526195</v>
+        <v>0.9984936980522439</v>
       </c>
       <c r="F13">
-        <v>1.047278675393038</v>
+        <v>1.003063175999362</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033260056202694</v>
+        <v>1.040760175307342</v>
       </c>
       <c r="J13">
-        <v>1.032781009252701</v>
+        <v>1.010042555992077</v>
       </c>
       <c r="K13">
-        <v>1.033788484760169</v>
+        <v>1.018572575503582</v>
       </c>
       <c r="L13">
-        <v>1.043400604901756</v>
+        <v>1.013605682315973</v>
       </c>
       <c r="M13">
-        <v>1.050839362913531</v>
+        <v>1.018088087220305</v>
       </c>
       <c r="N13">
-        <v>1.014918538847203</v>
+        <v>1.007220757221442</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026241889533562</v>
+        <v>0.9803057896063585</v>
       </c>
       <c r="D14">
-        <v>1.030280645638575</v>
+        <v>1.004174591720961</v>
       </c>
       <c r="E14">
-        <v>1.039971354091188</v>
+        <v>0.9992885117339341</v>
       </c>
       <c r="F14">
-        <v>1.04745135831744</v>
+        <v>1.0039268302605</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033292572135632</v>
+        <v>1.041022733382264</v>
       </c>
       <c r="J14">
-        <v>1.032880929090134</v>
+        <v>1.010558320757308</v>
       </c>
       <c r="K14">
-        <v>1.033872826639345</v>
+        <v>1.019035074572905</v>
       </c>
       <c r="L14">
-        <v>1.043527501872203</v>
+        <v>1.014240844660107</v>
       </c>
       <c r="M14">
-        <v>1.050980196774096</v>
+        <v>1.018791942524124</v>
       </c>
       <c r="N14">
-        <v>1.014951864074483</v>
+        <v>1.007393593437734</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026341431737844</v>
+        <v>0.980838739232692</v>
       </c>
       <c r="D15">
-        <v>1.0303524839849</v>
+        <v>1.004553783937462</v>
       </c>
       <c r="E15">
-        <v>1.040069312565243</v>
+        <v>0.9997766020387497</v>
       </c>
       <c r="F15">
-        <v>1.047557770228589</v>
+        <v>1.00445716701265</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033312564967167</v>
+        <v>1.041183602940444</v>
       </c>
       <c r="J15">
-        <v>1.032942486225539</v>
+        <v>1.01087489878263</v>
       </c>
       <c r="K15">
-        <v>1.033924773305963</v>
+        <v>1.019318877356683</v>
       </c>
       <c r="L15">
-        <v>1.043605688245432</v>
+        <v>1.014630781505011</v>
       </c>
       <c r="M15">
-        <v>1.051066970430688</v>
+        <v>1.019224051219628</v>
       </c>
       <c r="N15">
-        <v>1.01497239368323</v>
+        <v>1.00749968037833</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026920932932306</v>
+        <v>0.9839115807399302</v>
       </c>
       <c r="D16">
-        <v>1.030770577842657</v>
+        <v>1.006741062065977</v>
       </c>
       <c r="E16">
-        <v>1.040639722618173</v>
+        <v>1.00259323929517</v>
       </c>
       <c r="F16">
-        <v>1.048177380990953</v>
+        <v>1.007517178616752</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033428300688234</v>
+        <v>1.042106354673385</v>
       </c>
       <c r="J16">
-        <v>1.033300671286232</v>
+        <v>1.012699501325879</v>
       </c>
       <c r="K16">
-        <v>1.034226832253961</v>
+        <v>1.020953338643743</v>
       </c>
       <c r="L16">
-        <v>1.044060780666317</v>
+        <v>1.016879288748008</v>
       </c>
       <c r="M16">
-        <v>1.051572049172751</v>
+        <v>1.021715738723495</v>
       </c>
       <c r="N16">
-        <v>1.01509183632917</v>
+        <v>1.00811110439809</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027284545993556</v>
+        <v>0.985814050737596</v>
       </c>
       <c r="D17">
-        <v>1.031032803940245</v>
+        <v>1.008096030128877</v>
       </c>
       <c r="E17">
-        <v>1.04099774448147</v>
+        <v>1.004339188665504</v>
       </c>
       <c r="F17">
-        <v>1.048566263470673</v>
+        <v>1.00941363003316</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033500342209296</v>
+        <v>1.042673403998833</v>
       </c>
       <c r="J17">
-        <v>1.03352525896342</v>
+        <v>1.013828504944744</v>
       </c>
       <c r="K17">
-        <v>1.034416046922204</v>
+        <v>1.021963580242663</v>
       </c>
       <c r="L17">
-        <v>1.044346259590069</v>
+        <v>1.018271561550815</v>
       </c>
       <c r="M17">
-        <v>1.05188888721957</v>
+        <v>1.02325859317236</v>
       </c>
       <c r="N17">
-        <v>1.015166716521684</v>
+        <v>1.00848942191664</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027496673738978</v>
+        <v>0.9869149491111856</v>
       </c>
       <c r="D18">
-        <v>1.031185743608777</v>
+        <v>1.008880357136598</v>
       </c>
       <c r="E18">
-        <v>1.041206651020091</v>
+        <v>1.00535025396531</v>
       </c>
       <c r="F18">
-        <v>1.048793169886751</v>
+        <v>1.010511724270986</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033542162076201</v>
+        <v>1.04299998652285</v>
       </c>
       <c r="J18">
-        <v>1.033656223603238</v>
+        <v>1.014481573973482</v>
       </c>
       <c r="K18">
-        <v>1.034526319014552</v>
+        <v>1.022547544639057</v>
       </c>
       <c r="L18">
-        <v>1.044512778432634</v>
+        <v>1.01907726973246</v>
       </c>
       <c r="M18">
-        <v>1.052073698740493</v>
+        <v>1.024151445419126</v>
       </c>
       <c r="N18">
-        <v>1.015210377261853</v>
+        <v>1.008708253424009</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027569010306703</v>
+        <v>0.9872888602393951</v>
       </c>
       <c r="D19">
-        <v>1.031237889942565</v>
+        <v>1.009146787340198</v>
       </c>
       <c r="E19">
-        <v>1.041277896020833</v>
+        <v>1.005693778131437</v>
       </c>
       <c r="F19">
-        <v>1.04887055228013</v>
+        <v>1.010884796802096</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033556387503187</v>
+        <v>1.043110642555548</v>
       </c>
       <c r="J19">
-        <v>1.033700873444171</v>
+        <v>1.014703339908785</v>
       </c>
       <c r="K19">
-        <v>1.034563903039205</v>
+        <v>1.022745774573626</v>
       </c>
       <c r="L19">
-        <v>1.044569557671918</v>
+        <v>1.019350928012979</v>
       </c>
       <c r="M19">
-        <v>1.052136715551642</v>
+        <v>1.024454702619171</v>
       </c>
       <c r="N19">
-        <v>1.015225261788492</v>
+        <v>1.008782562150848</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027245529775614</v>
+        <v>0.985610847280632</v>
       </c>
       <c r="D20">
-        <v>1.031004670832093</v>
+        <v>1.007951278945455</v>
       </c>
       <c r="E20">
-        <v>1.040959324001604</v>
+        <v>1.004152626055694</v>
       </c>
       <c r="F20">
-        <v>1.048524532000807</v>
+        <v>1.009210998700254</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033492633594151</v>
+        <v>1.042612997682039</v>
       </c>
       <c r="J20">
-        <v>1.033501166295496</v>
+        <v>1.01370794121609</v>
       </c>
       <c r="K20">
-        <v>1.034395755655863</v>
+        <v>1.021855740902657</v>
       </c>
       <c r="L20">
-        <v>1.044315630001377</v>
+        <v>1.018122847450316</v>
       </c>
       <c r="M20">
-        <v>1.051854892945181</v>
+        <v>1.023093794617983</v>
       </c>
       <c r="N20">
-        <v>1.015158684197874</v>
+        <v>1.008449022765832</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026194316430141</v>
+        <v>0.9800505472508302</v>
       </c>
       <c r="D21">
-        <v>1.030246310538272</v>
+        <v>1.003993005603394</v>
       </c>
       <c r="E21">
-        <v>1.039924540161033</v>
+        <v>0.9990547977156121</v>
       </c>
       <c r="F21">
-        <v>1.047400504110377</v>
+        <v>1.003672879644278</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033283005608113</v>
+        <v>1.040945604741884</v>
       </c>
       <c r="J21">
-        <v>1.032851506598157</v>
+        <v>1.010406692028407</v>
       </c>
       <c r="K21">
-        <v>1.033847994045519</v>
+        <v>1.018899122102917</v>
       </c>
       <c r="L21">
-        <v>1.043490133675129</v>
+        <v>1.014054099397845</v>
       </c>
       <c r="M21">
-        <v>1.05093872444653</v>
+        <v>1.018585000703221</v>
       </c>
       <c r="N21">
-        <v>1.01494205128414</v>
+        <v>1.007342781729839</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025533728395911</v>
+        <v>0.9764700931501619</v>
       </c>
       <c r="D22">
-        <v>1.029769397153184</v>
+        <v>1.001447066671887</v>
       </c>
       <c r="E22">
-        <v>1.039274645227039</v>
+        <v>0.9957793335217806</v>
       </c>
       <c r="F22">
-        <v>1.046694492287091</v>
+        <v>1.000113286368098</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033149400064725</v>
+        <v>1.039858090031266</v>
       </c>
       <c r="J22">
-        <v>1.032442743298618</v>
+        <v>1.008278939480745</v>
       </c>
       <c r="K22">
-        <v>1.033502757723062</v>
+        <v>1.016989911291801</v>
       </c>
       <c r="L22">
-        <v>1.042971152555459</v>
+        <v>1.011434868904691</v>
       </c>
       <c r="M22">
-        <v>1.050362747421919</v>
+        <v>1.015682499367439</v>
       </c>
       <c r="N22">
-        <v>1.014805707177969</v>
+        <v>1.006629753095148</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025883885020487</v>
+        <v>0.9783764384509469</v>
       </c>
       <c r="D23">
-        <v>1.03002222719472</v>
+        <v>1.002802298695104</v>
       </c>
       <c r="E23">
-        <v>1.039619098689241</v>
+        <v>0.9975225976076078</v>
       </c>
       <c r="F23">
-        <v>1.047068694916951</v>
+        <v>1.002007889335393</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033220397692141</v>
+        <v>1.040438395393782</v>
       </c>
       <c r="J23">
-        <v>1.032659464277563</v>
+        <v>1.009411990914146</v>
       </c>
       <c r="K23">
-        <v>1.033685853035575</v>
+        <v>1.018006915574374</v>
       </c>
       <c r="L23">
-        <v>1.043246270032986</v>
+        <v>1.012829339038296</v>
       </c>
       <c r="M23">
-        <v>1.050668078228797</v>
+        <v>1.017227782287837</v>
       </c>
       <c r="N23">
-        <v>1.014877998778747</v>
+        <v>1.007009449643367</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027263159406447</v>
+        <v>0.9857026932532427</v>
       </c>
       <c r="D24">
-        <v>1.031017383011066</v>
+        <v>1.008016704292869</v>
       </c>
       <c r="E24">
-        <v>1.040976684320377</v>
+        <v>1.004236948236523</v>
       </c>
       <c r="F24">
-        <v>1.048543388415271</v>
+        <v>1.009302583977634</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033496117405797</v>
+        <v>1.042640305559136</v>
       </c>
       <c r="J24">
-        <v>1.033512052838803</v>
+        <v>1.013762435616843</v>
       </c>
       <c r="K24">
-        <v>1.034404924695046</v>
+        <v>1.021904485186742</v>
       </c>
       <c r="L24">
-        <v>1.044329470182348</v>
+        <v>1.018190064633063</v>
       </c>
       <c r="M24">
-        <v>1.051870253478357</v>
+        <v>1.023168281793978</v>
       </c>
       <c r="N24">
-        <v>1.015162313707512</v>
+        <v>1.00846728306287</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028865233868087</v>
+        <v>0.9938622698376176</v>
       </c>
       <c r="D25">
-        <v>1.032171715402228</v>
+        <v>1.013833600446906</v>
       </c>
       <c r="E25">
-        <v>1.042555159752256</v>
+        <v>1.011743394767765</v>
       </c>
       <c r="F25">
-        <v>1.050257737665538</v>
+        <v>1.017453024316453</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03380819809979</v>
+        <v>1.045032696756033</v>
       </c>
       <c r="J25">
-        <v>1.034500115097309</v>
+        <v>1.018597973451256</v>
       </c>
       <c r="K25">
-        <v>1.035235691181832</v>
+        <v>1.026220897131831</v>
       </c>
       <c r="L25">
-        <v>1.045586609731162</v>
+        <v>1.024162104411907</v>
       </c>
       <c r="M25">
-        <v>1.053265512992975</v>
+        <v>1.029786314036389</v>
       </c>
       <c r="N25">
-        <v>1.015491631845898</v>
+        <v>1.010087458590688</v>
       </c>
     </row>
   </sheetData>
